--- a/biology/Zoologie/Anniellidae/Anniellidae.xlsx
+++ b/biology/Zoologie/Anniellidae/Anniellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anniellidae sont une famille de sauriens. Elle a été créée par George Albert Boulenger en 1885.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Californie aux États-Unis et en Basse-Californie au Mexique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces qui la composent sont des lézards apodes pouvant atteindre 30 cm, carnivores et vivipares.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (1 juin 2012)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (1 juin 2012)
 Anniella Gray, 1852
 et le genre fossile 
 †Apodosauriscus Gauthier, 1982</t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1885 : Catalogue of the lizards in the British Museum (Natural History) II. Iguanidae, Xenosauridae, Zonuridae, Anguidae, Anniellidae, Helodermatidae, Varanidae, Xantusiidae, Teiidae, Amphisbaenidae, Second edition, London, vol. 2, p. 1-497 (texte intégral).</t>
         </is>
